--- a/mySystem/mySystem/xls/miejun/SOP-MFG-106-R01B Gamma射线辐射灭菌委托单.xlsx
+++ b/mySystem/mySystem/xls/miejun/SOP-MFG-106-R01B Gamma射线辐射灭菌委托单.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="7470" windowHeight="2505"/>
@@ -645,8 +645,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -767,7 +767,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1008,6 +1008,32 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1020,7 +1046,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1034,9 +1060,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1094,6 +1117,69 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1124,71 +1210,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1251,7 +1280,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1283,10 +1312,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1318,7 +1346,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1494,14 +1521,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="4.125" style="2" customWidth="1"/>
@@ -1509,332 +1536,337 @@
     <col min="4" max="4" width="14" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="7.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="7.5" style="23" customWidth="1"/>
-    <col min="8" max="8" width="11.125" style="24" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="22" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="23" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="20.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+    </row>
+    <row r="2" spans="1:8" ht="32.25" customHeight="1" thickBot="1">
+      <c r="A2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-    </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A3" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="31"/>
-    </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="32" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="51"/>
+    </row>
+    <row r="4" spans="1:8" s="3" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A4" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33" t="s">
+      <c r="B4" s="53"/>
+      <c r="C4" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="34"/>
-    </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="39" t="s">
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
-    </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="30"/>
+    </row>
+    <row r="6" spans="1:8" s="3" customFormat="1" ht="28.5">
+      <c r="A6" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="42"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="42"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="42"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="42"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" s="14" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="42"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" s="14" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="42"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:8" s="14" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="42"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="1:8" s="14" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="42"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:8" s="14" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="42"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="1:8" s="14" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="42"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="1:8" s="14" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="42"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="1:8" s="14" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="42"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="1:8" s="14" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="42"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="15"/>
-    </row>
-    <row r="20" spans="1:8" s="18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="42"/>
-      <c r="B20" s="43" t="s">
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A7" s="9"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A8" s="9"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" s="4" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A10" s="9"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" s="13" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A11" s="9"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" s="13" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A12" s="9"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8" s="13" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A13" s="9"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" s="13" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A14" s="9"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:8" s="13" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A15" s="9"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" s="13" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A16" s="9"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8" s="13" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A17" s="9"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" s="13" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A18" s="9"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" s="13" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A19" s="9"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" spans="1:8" s="17" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A20" s="55"/>
+      <c r="B20" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="16" t="s">
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9" t="s">
+      <c r="F20" s="8"/>
+      <c r="G20" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="17"/>
-    </row>
-    <row r="21" spans="1:8" s="18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="19" t="s">
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" spans="1:8" s="17" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A21" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="54" t="s">
+      <c r="D21" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="56"/>
-    </row>
-    <row r="22" spans="1:8" s="3" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="19" t="s">
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
+    </row>
+    <row r="22" spans="1:8" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="A22" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="45"/>
-    </row>
-    <row r="23" spans="1:8" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="46" t="s">
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="33"/>
+    </row>
+    <row r="23" spans="1:8" s="3" customFormat="1" ht="36" customHeight="1">
+      <c r="A23" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20" t="s">
+      <c r="B23" s="35"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="48"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="50"/>
-    </row>
-    <row r="24" spans="1:8" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="46" t="s">
+      <c r="E23" s="36"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="38"/>
+    </row>
+    <row r="24" spans="1:8" s="3" customFormat="1" ht="36" customHeight="1">
+      <c r="A24" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="21" t="s">
+      <c r="B24" s="35"/>
+      <c r="C24" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="51" t="s">
+      <c r="E24" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="53"/>
-    </row>
-    <row r="25" spans="1:8" s="4" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="35" t="s">
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="41"/>
+    </row>
+    <row r="25" spans="1:8" s="4" customFormat="1" ht="31.5" customHeight="1" thickBot="1">
+      <c r="A25" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22" t="s">
+      <c r="B25" s="25"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22" t="s">
+      <c r="E25" s="21"/>
+      <c r="F25" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G25" s="37" t="s">
+      <c r="G25" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="38"/>
+      <c r="H25" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="17">
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:H4"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:H5"/>
-    <mergeCell ref="A7:A20"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B22:H22"/>
     <mergeCell ref="A23:B23"/>
@@ -1842,12 +1874,6 @@
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="E24:H24"/>
     <mergeCell ref="D21:H21"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:H4"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/mySystem/mySystem/xls/miejun/SOP-MFG-106-R01B Gamma射线辐射灭菌委托单.xlsx
+++ b/mySystem/mySystem/xls/miejun/SOP-MFG-106-R01B Gamma射线辐射灭菌委托单.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="7470" windowHeight="2505"/>
@@ -234,7 +234,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>辐照单位</t>
+      <t>产品名称</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -248,7 +248,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>产品名称</t>
+      <t>序号</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -262,7 +262,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>序号</t>
+      <t>产品代码</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -276,7 +276,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>产品代码</t>
+      <t>产品批号</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -290,7 +290,46 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>产品批号</t>
+      <t>纸箱规格</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>辐照剂量</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>辐照标签：要求每箱粘贴标签</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其他说明</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -304,46 +343,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>纸箱规格</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>辐照剂量</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>辐照标签：要求每箱粘贴标签</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>其他说明</t>
+      <t>委托人：</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -357,7 +357,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>委托人：</t>
+      <t>审批：</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -371,7 +371,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>审批：</t>
+      <t>委托日期：</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -385,7 +385,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>委托日期：</t>
+      <t>日期：</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -399,7 +399,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>年</t>
+      <t>运</t>
     </r>
     <r>
       <rPr>
@@ -409,7 +409,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">   </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>月</t>
+      <t>输</t>
     </r>
     <r>
       <rPr>
@@ -430,7 +430,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">   </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -441,212 +441,46 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>日</t>
-    </r>
+      <t>商：</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>操作人：</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辐照单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年   月   日</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日期：</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
+    <t>年     月    日</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>运</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>商：</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>操作人：</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
+    <t>年  月  日</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -751,6 +585,41 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1046,7 +915,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1072,9 +941,6 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1105,9 +971,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1117,35 +980,47 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1153,24 +1028,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1180,43 +1037,64 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="18" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1280,7 +1158,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1312,9 +1190,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1346,6 +1225,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1521,14 +1401,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="4.125" style="2" customWidth="1"/>
@@ -1536,90 +1416,90 @@
     <col min="4" max="4" width="14" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="7.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="7.5" style="22" customWidth="1"/>
-    <col min="8" max="8" width="11.125" style="23" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="20" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="21" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25" customHeight="1">
+    <row r="1" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-    </row>
-    <row r="2" spans="1:8" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A2" s="46" t="s">
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-    </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A3" s="47" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="51"/>
-    </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A4" s="52" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="60"/>
+    </row>
+    <row r="4" spans="1:8" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53" t="s">
+      <c r="B4" s="30"/>
+      <c r="C4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-    </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A5" s="28" t="s">
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="31"/>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="34"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
+    </row>
+    <row r="6" spans="1:8" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="30"/>
-    </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" ht="28.5">
-      <c r="A6" s="57" t="s">
+      <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>6</v>
@@ -1631,238 +1511,232 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="44"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="12"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="44"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="12"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="44"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:8" s="4" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="12"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="44"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="1:8" s="13" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="12"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="44"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="1:8" s="13" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A12" s="9"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="12"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="44"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="12"/>
+      <c r="F12" s="11"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:8" s="13" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="12"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="44"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="12"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" spans="1:8" s="13" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="12"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="44"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="1:8" s="13" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="12"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="44"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="1:8" s="13" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A16" s="9"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="12"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="44"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="11"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="1:8" s="13" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A17" s="9"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="12"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="44"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:8" s="13" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A18" s="9"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="12"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="44"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="1:8" s="13" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A19" s="9"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="12"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="44"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="14"/>
-    </row>
-    <row r="20" spans="1:8" s="17" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A20" s="55"/>
-      <c r="B20" s="31" t="s">
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" s="16" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="22"/>
+      <c r="B20" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="15" t="s">
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="14" t="s">
         <v>1</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="16"/>
-    </row>
-    <row r="21" spans="1:8" s="17" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A21" s="18" t="s">
-        <v>19</v>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:8" s="16" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="40"/>
+    </row>
+    <row r="22" spans="1:8" s="3" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
-    </row>
-    <row r="22" spans="1:8" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="A22" s="18" t="s">
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="51"/>
+    </row>
+    <row r="23" spans="1:8" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="33"/>
-    </row>
-    <row r="23" spans="1:8" s="3" customFormat="1" ht="36" customHeight="1">
-      <c r="A23" s="34" t="s">
+      <c r="B23" s="37"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19" t="s">
+      <c r="E23" s="52"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="54"/>
+    </row>
+    <row r="24" spans="1:8" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="38"/>
-    </row>
-    <row r="24" spans="1:8" s="3" customFormat="1" ht="36" customHeight="1">
-      <c r="A24" s="34" t="s">
+      <c r="B24" s="37"/>
+      <c r="C24" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="20" t="s">
+      <c r="E24" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="48"/>
+    </row>
+    <row r="25" spans="1:8" s="4" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="B25" s="33"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="41"/>
-    </row>
-    <row r="25" spans="1:8" s="4" customFormat="1" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A25" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="26" t="s">
+      <c r="E25" s="55"/>
+      <c r="F25" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="27"/>
+      <c r="H25" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:H4"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="A5:B5"/>
@@ -1874,6 +1748,12 @@
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="E24:H24"/>
     <mergeCell ref="D21:H21"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:H4"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
